--- a/data/output/FV2404_FV2310/ORDCHG/39001.xlsx
+++ b/data/output/FV2404_FV2310/ORDCHG/39001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="153">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="153">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -579,6 +579,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U59" totalsRowShown="0">
+  <autoFilter ref="A1:U59"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,7 +898,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3712,5 +3745,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/ORDCHG/39001.xlsx
+++ b/data/output/FV2404_FV2310/ORDCHG/39001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="211">
   <si>
     <t>#</t>
   </si>
@@ -2410,44 +2410,42 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="5" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5" t="s">
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V26" s="5"/>
+      <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="5" t="s">
@@ -2473,9 +2471,7 @@
         <v>141</v>
       </c>
       <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L27" s="4"/>
       <c r="M27" s="5" t="s">
         <v>27</v>
       </c>
@@ -2527,9 +2523,7 @@
         <v>142</v>
       </c>
       <c r="K28" s="5"/>
-      <c r="L28" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
         <v>27</v>
       </c>
@@ -2585,9 +2579,7 @@
         <v>142</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="5" t="s">
         <v>27</v>
       </c>
@@ -2614,44 +2606,42 @@
       <c r="V29" s="5"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K30" s="5"/>
-      <c r="L30" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M30" s="5" t="s">
+      <c r="K30" s="2"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5" t="s">
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V30" s="5"/>
+      <c r="V30" s="2"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
@@ -2677,9 +2667,7 @@
         <v>141</v>
       </c>
       <c r="K31" s="5"/>
-      <c r="L31" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="5" t="s">
         <v>28</v>
       </c>
@@ -2731,9 +2719,7 @@
         <v>142</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
         <v>28</v>
       </c>
@@ -2789,9 +2775,7 @@
         <v>142</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="5" t="s">
         <v>28</v>
       </c>
@@ -2847,9 +2831,7 @@
         <v>142</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L34" s="4"/>
       <c r="M34" s="5" t="s">
         <v>28</v>
       </c>
@@ -2905,9 +2887,7 @@
         <v>142</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>28</v>
       </c>
@@ -2961,9 +2941,7 @@
         <v>142</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>28</v>
       </c>
@@ -2990,44 +2968,42 @@
       <c r="V36" s="5"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M37" s="5" t="s">
+      <c r="K37" s="2"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5" t="s">
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="V37" s="5"/>
+      <c r="V37" s="2"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="5" t="s">
@@ -3053,9 +3029,7 @@
         <v>141</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>29</v>
       </c>
@@ -3107,9 +3081,7 @@
         <v>142</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>29</v>
       </c>
@@ -3165,9 +3137,7 @@
         <v>142</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="5" t="s">
         <v>29</v>
       </c>
@@ -3194,52 +3164,50 @@
       <c r="V40" s="5"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M41" s="5" t="s">
+      <c r="K41" s="2"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5" t="s">
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5" t="s">
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V41" s="5"/>
+      <c r="V41" s="2"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="5" t="s">
@@ -3269,9 +3237,7 @@
         <v>142</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>30</v>
       </c>
@@ -3327,9 +3293,7 @@
         <v>148</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="5" t="s">
         <v>30</v>
       </c>
@@ -3385,9 +3349,7 @@
         <v>148</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="5" t="s">
         <v>30</v>
       </c>
@@ -3441,9 +3403,7 @@
         <v>148</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>30</v>
       </c>
@@ -3497,9 +3457,7 @@
         <v>148</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="5" t="s">
         <v>30</v>
       </c>
@@ -3553,9 +3511,7 @@
         <v>148</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L47" s="4"/>
       <c r="M47" s="5" t="s">
         <v>30</v>
       </c>
@@ -3582,44 +3538,42 @@
       <c r="V47" s="5"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M48" s="5" t="s">
+      <c r="K48" s="2"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5" t="s">
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V48" s="5"/>
+      <c r="V48" s="2"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="5" t="s">
@@ -3645,9 +3599,7 @@
         <v>141</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>31</v>
       </c>
@@ -3699,9 +3651,7 @@
         <v>142</v>
       </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L50" s="4"/>
       <c r="M50" s="5" t="s">
         <v>31</v>
       </c>
@@ -3757,9 +3707,7 @@
         <v>142</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L51" s="4"/>
       <c r="M51" s="5" t="s">
         <v>31</v>
       </c>
@@ -3815,9 +3763,7 @@
         <v>142</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>31</v>
       </c>
@@ -3873,9 +3819,7 @@
         <v>142</v>
       </c>
       <c r="K53" s="5"/>
-      <c r="L53" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="5" t="s">
         <v>31</v>
       </c>
@@ -3929,9 +3873,7 @@
         <v>142</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>31</v>
       </c>
@@ -3958,48 +3900,46 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M55" s="5" t="s">
+      <c r="K55" s="2"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5" t="s">
+      <c r="N55" s="2"/>
+      <c r="O55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5" t="s">
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5" t="s">
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V55" s="5"/>
+      <c r="V55" s="2"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4029,9 +3969,7 @@
         <v>142</v>
       </c>
       <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="5" t="s">
         <v>32</v>
       </c>
@@ -4058,48 +3996,46 @@
       <c r="V56" s="5"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="s">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M57" s="5" t="s">
+      <c r="K57" s="2"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5" t="s">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5" t="s">
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5" t="s">
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="V57" s="5"/>
+      <c r="V57" s="2"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4127,9 +4063,7 @@
         <v>142</v>
       </c>
       <c r="K58" s="5"/>
-      <c r="L58" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="5" t="s">
         <v>33</v>
       </c>
@@ -4179,9 +4113,7 @@
         <v>142</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>33</v>
       </c>

--- a/data/output/FV2404_FV2310/ORDCHG/39001.xlsx
+++ b/data/output/FV2404_FV2310/ORDCHG/39001.xlsx
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2204,50 +2204,50 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="2" t="s">
         <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="O22" s="6"/>
-      <c r="P22" s="5"/>
+      <c r="P22" s="2"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5" t="s">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="V22" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2"/>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2"/>
